--- a/Diagnosed.xlsx
+++ b/Diagnosed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\אנגלית\suspect and diagnostied\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD20C811-A6AF-4F54-9C9F-154D1FA1F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352979E-3B20-45F5-AD05-D303282A8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3215,10 +3215,10 @@
       <c r="I1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>664</v>
       </c>
     </row>
@@ -3241,11 +3241,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="J2">
-        <v>329</v>
-      </c>
       <c r="K2">
         <v>1328</v>
+      </c>
+      <c r="L2">
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -3267,11 +3267,11 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
-        <v>366</v>
-      </c>
       <c r="K3">
         <v>1437</v>
+      </c>
+      <c r="L3">
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -3296,11 +3296,11 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
-        <v>317</v>
-      </c>
       <c r="K4">
         <v>1283</v>
+      </c>
+      <c r="L4">
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -3319,11 +3319,11 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>145</v>
-      </c>
       <c r="K5">
         <v>585</v>
+      </c>
+      <c r="L5">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -3345,11 +3345,11 @@
       <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="J6">
-        <v>381</v>
-      </c>
       <c r="K6">
         <v>1720</v>
+      </c>
+      <c r="L6">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -3365,11 +3365,11 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="J7">
-        <v>308</v>
-      </c>
       <c r="K7">
         <v>1319</v>
+      </c>
+      <c r="L7">
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -3388,11 +3388,11 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="J8">
-        <v>119</v>
-      </c>
       <c r="K8">
         <v>456</v>
+      </c>
+      <c r="L8">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -3414,12 +3414,12 @@
       <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="J9">
-        <v>133</v>
-      </c>
       <c r="K9">
         <v>583</v>
       </c>
+      <c r="L9">
+        <v>133</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3434,11 +3434,11 @@
       <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="J10">
-        <v>188</v>
-      </c>
       <c r="K10">
         <v>844</v>
+      </c>
+      <c r="L10">
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -3460,11 +3460,11 @@
       <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="J11">
-        <v>196</v>
-      </c>
       <c r="K11">
         <v>803</v>
+      </c>
+      <c r="L11">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -3486,11 +3486,11 @@
       <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="J12">
-        <v>344</v>
-      </c>
       <c r="K12">
         <v>1411</v>
+      </c>
+      <c r="L12">
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -3512,11 +3512,11 @@
       <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="J13">
-        <v>103</v>
-      </c>
       <c r="K13">
         <v>390</v>
+      </c>
+      <c r="L13">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -3541,11 +3541,11 @@
       <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="J14">
-        <v>357</v>
-      </c>
       <c r="K14">
         <v>1609</v>
+      </c>
+      <c r="L14">
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -3564,11 +3564,11 @@
       <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="J15">
-        <v>150</v>
-      </c>
       <c r="K15">
         <v>621</v>
+      </c>
+      <c r="L15">
+        <v>150</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3599,11 +3599,11 @@
       <c r="G16" t="s">
         <v>50</v>
       </c>
-      <c r="J16">
-        <v>106</v>
-      </c>
       <c r="K16">
         <v>441</v>
+      </c>
+      <c r="L16">
+        <v>106</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3644,11 +3644,11 @@
       <c r="G17" t="s">
         <v>53</v>
       </c>
-      <c r="J17">
-        <v>252</v>
-      </c>
       <c r="K17">
         <v>1055</v>
+      </c>
+      <c r="L17">
+        <v>252</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3700,11 +3700,11 @@
       <c r="G18" t="s">
         <v>56</v>
       </c>
-      <c r="J18">
-        <v>197</v>
-      </c>
       <c r="K18">
         <v>856</v>
+      </c>
+      <c r="L18">
+        <v>197</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3752,11 +3752,11 @@
       <c r="G19" t="s">
         <v>58</v>
       </c>
-      <c r="J19">
-        <v>401</v>
-      </c>
       <c r="K19">
         <v>1607</v>
+      </c>
+      <c r="L19">
+        <v>401</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3794,11 +3794,11 @@
       <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="J20">
-        <v>284</v>
-      </c>
       <c r="K20">
         <v>1166</v>
+      </c>
+      <c r="L20">
+        <v>284</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="4" t="s">
@@ -3835,11 +3835,11 @@
       <c r="G21" t="s">
         <v>63</v>
       </c>
-      <c r="J21">
-        <v>164</v>
-      </c>
       <c r="K21">
         <v>719</v>
+      </c>
+      <c r="L21">
+        <v>164</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="4" t="s">
@@ -3883,11 +3883,11 @@
       <c r="G22" t="s">
         <v>66</v>
       </c>
-      <c r="J22">
-        <v>388</v>
-      </c>
       <c r="K22">
         <v>1548</v>
+      </c>
+      <c r="L22">
+        <v>388</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="4" t="s">
@@ -3931,11 +3931,11 @@
       <c r="G23" t="s">
         <v>68</v>
       </c>
-      <c r="J23">
-        <v>455</v>
-      </c>
       <c r="K23">
         <v>1860</v>
+      </c>
+      <c r="L23">
+        <v>455</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="4" t="s">
@@ -3976,11 +3976,11 @@
       <c r="G24" t="s">
         <v>71</v>
       </c>
-      <c r="J24">
-        <v>349</v>
-      </c>
       <c r="K24">
         <v>1364</v>
+      </c>
+      <c r="L24">
+        <v>349</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="4" t="s">
@@ -4024,11 +4024,11 @@
       <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25">
-        <v>108</v>
-      </c>
       <c r="K25">
         <v>446</v>
+      </c>
+      <c r="L25">
+        <v>108</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="4" t="s">
@@ -4066,11 +4066,11 @@
       <c r="G26" t="s">
         <v>78</v>
       </c>
-      <c r="J26">
-        <v>235</v>
-      </c>
       <c r="K26">
         <v>1055</v>
+      </c>
+      <c r="L26">
+        <v>235</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="4" t="s">
@@ -4111,11 +4111,11 @@
       <c r="G27" t="s">
         <v>81</v>
       </c>
-      <c r="J27">
-        <v>144</v>
-      </c>
       <c r="K27">
         <v>626</v>
+      </c>
+      <c r="L27">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -4134,11 +4134,11 @@
       <c r="G28" t="s">
         <v>84</v>
       </c>
-      <c r="J28">
-        <v>170</v>
-      </c>
       <c r="K28">
         <v>813</v>
+      </c>
+      <c r="L28">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -4157,11 +4157,11 @@
       <c r="G29" t="s">
         <v>87</v>
       </c>
-      <c r="J29">
-        <v>400</v>
-      </c>
       <c r="K29">
         <v>1710</v>
+      </c>
+      <c r="L29">
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -4180,11 +4180,11 @@
       <c r="G30" t="s">
         <v>89</v>
       </c>
-      <c r="J30">
-        <v>342</v>
-      </c>
       <c r="K30">
         <v>1555</v>
+      </c>
+      <c r="L30">
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -4203,11 +4203,11 @@
       <c r="G31" t="s">
         <v>91</v>
       </c>
-      <c r="J31">
-        <v>214</v>
-      </c>
       <c r="K31">
         <v>867</v>
+      </c>
+      <c r="L31">
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -4226,14 +4226,14 @@
       <c r="G32" t="s">
         <v>93</v>
       </c>
-      <c r="J32">
-        <v>197</v>
-      </c>
       <c r="K32">
         <v>779</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4249,14 +4249,14 @@
       <c r="G33" t="s">
         <v>96</v>
       </c>
-      <c r="J33">
-        <v>314</v>
-      </c>
       <c r="K33">
         <v>1347</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4272,14 +4272,14 @@
       <c r="G34" t="s">
         <v>99</v>
       </c>
-      <c r="J34">
-        <v>228</v>
-      </c>
       <c r="K34">
         <v>967</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4295,14 +4295,14 @@
       <c r="G35" t="s">
         <v>102</v>
       </c>
-      <c r="J35">
-        <v>372</v>
-      </c>
       <c r="K35">
         <v>1469</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4318,14 +4318,14 @@
       <c r="G36" t="s">
         <v>105</v>
       </c>
-      <c r="J36">
-        <v>427</v>
-      </c>
       <c r="K36">
         <v>1644</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4341,14 +4341,14 @@
       <c r="G37" t="s">
         <v>108</v>
       </c>
-      <c r="J37">
-        <v>95</v>
-      </c>
       <c r="K37">
         <v>377</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4364,14 +4364,14 @@
       <c r="G38" t="s">
         <v>111</v>
       </c>
-      <c r="J38">
-        <v>199</v>
-      </c>
       <c r="K38">
         <v>893</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4387,14 +4387,14 @@
       <c r="G39" t="s">
         <v>113</v>
       </c>
-      <c r="J39">
-        <v>483</v>
-      </c>
       <c r="K39">
         <v>2021</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4410,14 +4410,14 @@
       <c r="G40" t="s">
         <v>115</v>
       </c>
-      <c r="J40">
-        <v>322</v>
-      </c>
       <c r="K40">
         <v>1240</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4433,14 +4433,14 @@
       <c r="G41" t="s">
         <v>117</v>
       </c>
-      <c r="J41">
-        <v>454</v>
-      </c>
       <c r="K41">
         <v>1773</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4456,14 +4456,14 @@
       <c r="G42" t="s">
         <v>120</v>
       </c>
-      <c r="J42">
-        <v>97</v>
-      </c>
       <c r="K42">
         <v>434</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4479,14 +4479,14 @@
       <c r="G43" t="s">
         <v>122</v>
       </c>
-      <c r="J43">
-        <v>144</v>
-      </c>
       <c r="K43">
         <v>614</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4508,14 +4508,14 @@
       <c r="G44" t="s">
         <v>125</v>
       </c>
-      <c r="J44">
-        <v>93</v>
-      </c>
       <c r="K44">
         <v>390</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4537,14 +4537,14 @@
       <c r="G45" t="s">
         <v>127</v>
       </c>
-      <c r="J45">
-        <v>80</v>
-      </c>
       <c r="K45">
         <v>341</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4566,14 +4566,14 @@
       <c r="G46" t="s">
         <v>129</v>
       </c>
-      <c r="J46">
-        <v>136</v>
-      </c>
       <c r="K46">
         <v>624</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4595,14 +4595,14 @@
       <c r="G47" t="s">
         <v>131</v>
       </c>
-      <c r="J47">
-        <v>224</v>
-      </c>
       <c r="K47">
         <v>1022</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4618,14 +4618,14 @@
       <c r="G48" t="s">
         <v>134</v>
       </c>
-      <c r="J48">
-        <v>211</v>
-      </c>
       <c r="K48">
         <v>962</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4641,14 +4641,14 @@
       <c r="G49" t="s">
         <v>137</v>
       </c>
-      <c r="J49">
-        <v>458</v>
-      </c>
       <c r="K49">
         <v>1926</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4664,14 +4664,14 @@
       <c r="G50" t="s">
         <v>140</v>
       </c>
-      <c r="J50">
-        <v>289</v>
-      </c>
       <c r="K50">
         <v>1196</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4687,14 +4687,14 @@
       <c r="G51" t="s">
         <v>142</v>
       </c>
-      <c r="J51">
-        <v>57</v>
-      </c>
       <c r="K51">
         <v>261</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4710,14 +4710,14 @@
       <c r="G52" t="s">
         <v>144</v>
       </c>
-      <c r="J52">
-        <v>108</v>
-      </c>
       <c r="K52">
         <v>419</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4733,14 +4733,14 @@
       <c r="G53" t="s">
         <v>147</v>
       </c>
-      <c r="J53">
-        <v>431</v>
-      </c>
       <c r="K53">
         <v>1678</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4756,14 +4756,14 @@
       <c r="G54" t="s">
         <v>150</v>
       </c>
-      <c r="J54">
-        <v>237</v>
-      </c>
       <c r="K54">
         <v>939</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4779,14 +4779,14 @@
       <c r="G55" t="s">
         <v>153</v>
       </c>
-      <c r="J55">
-        <v>144</v>
-      </c>
       <c r="K55">
         <v>620</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4802,14 +4802,14 @@
       <c r="G56" t="s">
         <v>155</v>
       </c>
-      <c r="J56">
-        <v>22</v>
-      </c>
       <c r="K56">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4825,14 +4825,14 @@
       <c r="G57" t="s">
         <v>158</v>
       </c>
-      <c r="J57">
-        <v>197</v>
-      </c>
       <c r="K57">
         <v>828</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4848,14 +4848,14 @@
       <c r="G58" t="s">
         <v>161</v>
       </c>
-      <c r="J58">
-        <v>120</v>
-      </c>
       <c r="K58">
         <v>553</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4871,14 +4871,14 @@
       <c r="G59" t="s">
         <v>164</v>
       </c>
-      <c r="J59">
-        <v>271</v>
-      </c>
       <c r="K59">
         <v>1148</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4894,14 +4894,14 @@
       <c r="G60" t="s">
         <v>167</v>
       </c>
-      <c r="J60">
-        <v>126</v>
-      </c>
       <c r="K60">
         <v>602</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4917,14 +4917,14 @@
       <c r="G61" t="s">
         <v>170</v>
       </c>
-      <c r="J61">
-        <v>173</v>
-      </c>
       <c r="K61">
         <v>713</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4940,14 +4940,14 @@
       <c r="G62" t="s">
         <v>173</v>
       </c>
-      <c r="J62">
-        <v>275</v>
-      </c>
       <c r="K62">
         <v>1395</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4963,14 +4963,14 @@
       <c r="G63" t="s">
         <v>176</v>
       </c>
-      <c r="J63">
-        <v>156</v>
-      </c>
       <c r="K63">
         <v>650</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4986,14 +4986,14 @@
       <c r="G64" t="s">
         <v>178</v>
       </c>
-      <c r="J64">
-        <v>374</v>
-      </c>
       <c r="K64">
         <v>1544</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5009,14 +5009,14 @@
       <c r="G65" t="s">
         <v>181</v>
       </c>
-      <c r="J65">
-        <v>174</v>
-      </c>
       <c r="K65">
         <v>745</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5032,14 +5032,14 @@
       <c r="I66" t="s">
         <v>184</v>
       </c>
-      <c r="J66">
-        <v>83</v>
-      </c>
       <c r="K66">
         <v>327</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5058,14 +5058,14 @@
       <c r="I67" t="s">
         <v>184</v>
       </c>
-      <c r="J67">
-        <v>151</v>
-      </c>
       <c r="K67">
         <v>643</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5084,14 +5084,14 @@
       <c r="I68" t="s">
         <v>184</v>
       </c>
-      <c r="J68">
-        <v>242</v>
-      </c>
       <c r="K68">
         <v>1055</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5110,14 +5110,14 @@
       <c r="I69" t="s">
         <v>184</v>
       </c>
-      <c r="J69">
-        <v>106</v>
-      </c>
       <c r="K69">
         <v>454</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5136,14 +5136,14 @@
       <c r="I70" t="s">
         <v>184</v>
       </c>
-      <c r="J70">
-        <v>110</v>
-      </c>
       <c r="K70">
         <v>478</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5162,14 +5162,14 @@
       <c r="I71" t="s">
         <v>184</v>
       </c>
-      <c r="J71">
-        <v>47</v>
-      </c>
       <c r="K71">
         <v>209</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5185,14 +5185,14 @@
       <c r="G72" t="s">
         <v>200</v>
       </c>
-      <c r="J72">
-        <v>159</v>
-      </c>
       <c r="K72">
         <v>672</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5208,14 +5208,14 @@
       <c r="G73" t="s">
         <v>202</v>
       </c>
-      <c r="J73">
-        <v>201</v>
-      </c>
       <c r="K73">
         <v>1028</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5231,14 +5231,14 @@
       <c r="G74" t="s">
         <v>204</v>
       </c>
-      <c r="J74">
-        <v>104</v>
-      </c>
       <c r="K74">
         <v>480</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5254,14 +5254,14 @@
       <c r="G75" t="s">
         <v>206</v>
       </c>
-      <c r="J75">
-        <v>174</v>
-      </c>
       <c r="K75">
         <v>784</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5277,14 +5277,14 @@
       <c r="G76" t="s">
         <v>209</v>
       </c>
-      <c r="J76">
-        <v>87</v>
-      </c>
       <c r="K76">
         <v>384</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5300,14 +5300,14 @@
       <c r="G77" t="s">
         <v>212</v>
       </c>
-      <c r="J77">
-        <v>68</v>
-      </c>
       <c r="K77">
         <v>342</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5326,14 +5326,14 @@
       <c r="G78" t="s">
         <v>215</v>
       </c>
-      <c r="J78">
-        <v>78</v>
-      </c>
       <c r="K78">
         <v>351</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5352,14 +5352,14 @@
       <c r="G79" t="s">
         <v>218</v>
       </c>
-      <c r="J79">
-        <v>100</v>
-      </c>
       <c r="K79">
         <v>418</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5375,14 +5375,14 @@
       <c r="G80" t="s">
         <v>221</v>
       </c>
-      <c r="J80">
-        <v>141</v>
-      </c>
       <c r="K80">
         <v>675</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5398,14 +5398,14 @@
       <c r="G81" t="s">
         <v>223</v>
       </c>
-      <c r="J81">
-        <v>452</v>
-      </c>
       <c r="K81">
         <v>2001</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5421,14 +5421,14 @@
       <c r="G82" t="s">
         <v>225</v>
       </c>
-      <c r="J82">
-        <v>108</v>
-      </c>
       <c r="K82">
         <v>530</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5444,14 +5444,14 @@
       <c r="G83" t="s">
         <v>227</v>
       </c>
-      <c r="J83">
-        <v>173</v>
-      </c>
       <c r="K83">
         <v>846</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5467,14 +5467,14 @@
       <c r="G84" t="s">
         <v>230</v>
       </c>
-      <c r="J84">
-        <v>374</v>
-      </c>
       <c r="K84">
         <v>1570</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5490,14 +5490,14 @@
       <c r="G85" t="s">
         <v>233</v>
       </c>
-      <c r="J85">
-        <v>98</v>
-      </c>
       <c r="K85">
         <v>435</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5513,14 +5513,14 @@
       <c r="G86" t="s">
         <v>236</v>
       </c>
-      <c r="J86">
-        <v>225</v>
-      </c>
       <c r="K86">
         <v>987</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5539,14 +5539,14 @@
       <c r="G87" t="s">
         <v>239</v>
       </c>
-      <c r="J87">
-        <v>165</v>
-      </c>
       <c r="K87">
         <v>732</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5562,14 +5562,14 @@
       <c r="G88" t="s">
         <v>242</v>
       </c>
-      <c r="J88">
-        <v>213</v>
-      </c>
       <c r="K88">
         <v>949</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5585,14 +5585,14 @@
       <c r="G89" t="s">
         <v>245</v>
       </c>
-      <c r="J89">
-        <v>265</v>
-      </c>
       <c r="K89">
         <v>1224</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5608,14 +5608,14 @@
       <c r="G90" t="s">
         <v>247</v>
       </c>
-      <c r="J90">
-        <v>199</v>
-      </c>
       <c r="K90">
         <v>922</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5634,14 +5634,14 @@
       <c r="G91" t="s">
         <v>251</v>
       </c>
-      <c r="J91">
-        <v>358</v>
-      </c>
       <c r="K91">
         <v>1541</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5660,14 +5660,14 @@
       <c r="G92" t="s">
         <v>255</v>
       </c>
-      <c r="J92">
-        <v>111</v>
-      </c>
       <c r="K92">
         <v>487</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5686,14 +5686,14 @@
       <c r="G93" t="s">
         <v>257</v>
       </c>
-      <c r="J93">
-        <v>265</v>
-      </c>
       <c r="K93">
         <v>1111</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5712,14 +5712,14 @@
       <c r="G94" t="s">
         <v>259</v>
       </c>
-      <c r="J94">
-        <v>148</v>
-      </c>
       <c r="K94">
         <v>615</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5738,14 +5738,14 @@
       <c r="G95" t="s">
         <v>261</v>
       </c>
-      <c r="J95">
-        <v>231</v>
-      </c>
       <c r="K95">
         <v>1003</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5764,14 +5764,14 @@
       <c r="G96" t="s">
         <v>263</v>
       </c>
-      <c r="J96">
-        <v>153</v>
-      </c>
       <c r="K96">
         <v>584</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5790,14 +5790,14 @@
       <c r="G97" t="s">
         <v>265</v>
       </c>
-      <c r="J97">
-        <v>55</v>
-      </c>
       <c r="K97">
         <v>242</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5816,14 +5816,14 @@
       <c r="G98" t="s">
         <v>267</v>
       </c>
-      <c r="J98">
-        <v>240</v>
-      </c>
       <c r="K98">
         <v>1026</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5842,14 +5842,14 @@
       <c r="G99" t="s">
         <v>269</v>
       </c>
-      <c r="J99">
-        <v>144</v>
-      </c>
       <c r="K99">
         <v>616</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5868,14 +5868,14 @@
       <c r="G100" t="s">
         <v>271</v>
       </c>
-      <c r="J100">
-        <v>107</v>
-      </c>
       <c r="K100">
         <v>452</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5894,14 +5894,14 @@
       <c r="G101" t="s">
         <v>273</v>
       </c>
-      <c r="J101">
-        <v>205</v>
-      </c>
       <c r="K101">
         <v>910</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5920,14 +5920,14 @@
       <c r="G102" t="s">
         <v>275</v>
       </c>
-      <c r="J102">
-        <v>169</v>
-      </c>
       <c r="K102">
         <v>743</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5946,14 +5946,14 @@
       <c r="G103" t="s">
         <v>278</v>
       </c>
-      <c r="J103">
-        <v>320</v>
-      </c>
       <c r="K103">
         <v>1337</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5972,14 +5972,14 @@
       <c r="G104" t="s">
         <v>278</v>
       </c>
-      <c r="J104">
-        <v>225</v>
-      </c>
       <c r="K104">
         <v>1049</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5998,14 +5998,14 @@
       <c r="G105" t="s">
         <v>278</v>
       </c>
-      <c r="J105">
-        <v>155</v>
-      </c>
       <c r="K105">
         <v>640</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6024,14 +6024,14 @@
       <c r="G106" t="s">
         <v>278</v>
       </c>
-      <c r="J106">
-        <v>87</v>
-      </c>
       <c r="K106">
         <v>360</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6050,14 +6050,14 @@
       <c r="G107" t="s">
         <v>278</v>
       </c>
-      <c r="J107">
-        <v>139</v>
-      </c>
       <c r="K107">
         <v>571</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6076,14 +6076,14 @@
       <c r="G108" t="s">
         <v>285</v>
       </c>
-      <c r="J108">
-        <v>46</v>
-      </c>
       <c r="K108">
         <v>243</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6102,14 +6102,14 @@
       <c r="G109" t="s">
         <v>287</v>
       </c>
-      <c r="J109">
-        <v>29</v>
-      </c>
       <c r="K109">
         <v>144</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6128,14 +6128,14 @@
       <c r="G110" t="s">
         <v>289</v>
       </c>
-      <c r="J110">
-        <v>113</v>
-      </c>
       <c r="K110">
         <v>499</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6154,14 +6154,14 @@
       <c r="G111" t="s">
         <v>291</v>
       </c>
-      <c r="J111">
-        <v>51</v>
-      </c>
       <c r="K111">
         <v>203</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6180,14 +6180,14 @@
       <c r="G112" t="s">
         <v>291</v>
       </c>
-      <c r="J112">
-        <v>78</v>
-      </c>
       <c r="K112">
         <v>336</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6206,14 +6206,14 @@
       <c r="G113" t="s">
         <v>291</v>
       </c>
-      <c r="J113">
-        <v>93</v>
-      </c>
       <c r="K113">
         <v>439</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6232,14 +6232,14 @@
       <c r="G114" t="s">
         <v>295</v>
       </c>
-      <c r="J114">
-        <v>68</v>
-      </c>
       <c r="K114">
         <v>319</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6258,14 +6258,14 @@
       <c r="G115" t="s">
         <v>295</v>
       </c>
-      <c r="J115">
-        <v>95</v>
-      </c>
       <c r="K115">
         <v>428</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6284,14 +6284,14 @@
       <c r="G116" t="s">
         <v>295</v>
       </c>
-      <c r="J116">
-        <v>49</v>
-      </c>
       <c r="K116">
         <v>237</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6310,14 +6310,14 @@
       <c r="G117" t="s">
         <v>299</v>
       </c>
-      <c r="J117">
-        <v>165</v>
-      </c>
       <c r="K117">
         <v>710</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6336,14 +6336,14 @@
       <c r="G118" t="s">
         <v>301</v>
       </c>
-      <c r="J118">
-        <v>90</v>
-      </c>
       <c r="K118">
         <v>425</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6362,14 +6362,14 @@
       <c r="G119" t="s">
         <v>303</v>
       </c>
-      <c r="J119">
-        <v>46</v>
-      </c>
       <c r="K119">
         <v>196</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6388,14 +6388,14 @@
       <c r="G120" t="s">
         <v>303</v>
       </c>
-      <c r="J120">
-        <v>200</v>
-      </c>
       <c r="K120">
         <v>888</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6414,14 +6414,14 @@
       <c r="G121" t="s">
         <v>306</v>
       </c>
-      <c r="J121">
-        <v>57</v>
-      </c>
       <c r="K121">
         <v>266</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6440,14 +6440,14 @@
       <c r="G122" t="s">
         <v>308</v>
       </c>
-      <c r="J122">
-        <v>125</v>
-      </c>
       <c r="K122">
         <v>513</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6466,14 +6466,14 @@
       <c r="G123" t="s">
         <v>308</v>
       </c>
-      <c r="J123">
-        <v>117</v>
-      </c>
       <c r="K123">
         <v>510</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6492,14 +6492,14 @@
       <c r="G124" t="s">
         <v>308</v>
       </c>
-      <c r="J124">
-        <v>323</v>
-      </c>
       <c r="K124">
         <v>1341</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6518,14 +6518,14 @@
       <c r="G125" t="s">
         <v>312</v>
       </c>
-      <c r="J125">
-        <v>126</v>
-      </c>
       <c r="K125">
         <v>523</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6544,14 +6544,14 @@
       <c r="G126" t="s">
         <v>314</v>
       </c>
-      <c r="J126">
-        <v>203</v>
-      </c>
       <c r="K126">
         <v>905</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6570,14 +6570,14 @@
       <c r="G127" t="s">
         <v>318</v>
       </c>
-      <c r="J127">
-        <v>378</v>
-      </c>
       <c r="K127">
         <v>1495</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6596,14 +6596,14 @@
       <c r="G128" t="s">
         <v>322</v>
       </c>
-      <c r="J128">
-        <v>807</v>
-      </c>
       <c r="K128">
         <v>3486</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6619,14 +6619,14 @@
       <c r="G129" t="s">
         <v>325</v>
       </c>
-      <c r="J129">
-        <v>147</v>
-      </c>
       <c r="K129">
         <v>636</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6642,14 +6642,14 @@
       <c r="G130" t="s">
         <v>328</v>
       </c>
-      <c r="J130">
-        <v>97</v>
-      </c>
       <c r="K130">
         <v>461</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6668,14 +6668,14 @@
       <c r="G131" t="s">
         <v>332</v>
       </c>
-      <c r="J131">
-        <v>25</v>
-      </c>
       <c r="K131">
         <v>103</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6691,14 +6691,14 @@
       <c r="G132" t="s">
         <v>335</v>
       </c>
-      <c r="J132">
-        <v>370</v>
-      </c>
       <c r="K132">
         <v>1592</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6714,14 +6714,14 @@
       <c r="G133" t="s">
         <v>338</v>
       </c>
-      <c r="J133">
-        <v>109</v>
-      </c>
       <c r="K133">
         <v>466</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6737,14 +6737,14 @@
       <c r="G134" t="s">
         <v>340</v>
       </c>
-      <c r="J134">
-        <v>221</v>
-      </c>
       <c r="K134">
         <v>882</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6760,14 +6760,14 @@
       <c r="G135" t="s">
         <v>343</v>
       </c>
-      <c r="J135">
-        <v>273</v>
-      </c>
       <c r="K135">
         <v>1094</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6783,14 +6783,14 @@
       <c r="G136" t="s">
         <v>346</v>
       </c>
-      <c r="J136">
-        <v>278</v>
-      </c>
       <c r="K136">
         <v>1236</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6806,14 +6806,14 @@
       <c r="G137" t="s">
         <v>350</v>
       </c>
-      <c r="J137">
-        <v>123</v>
-      </c>
       <c r="K137">
         <v>456</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6826,14 +6826,14 @@
       <c r="G138" t="s">
         <v>353</v>
       </c>
-      <c r="J138">
-        <v>266</v>
-      </c>
       <c r="K138">
         <v>1087</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6849,14 +6849,14 @@
       <c r="G139" t="s">
         <v>356</v>
       </c>
-      <c r="J139">
-        <v>334</v>
-      </c>
       <c r="K139">
         <v>1501</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6872,14 +6872,14 @@
       <c r="G140" t="s">
         <v>359</v>
       </c>
-      <c r="J140">
-        <v>233</v>
-      </c>
       <c r="K140">
         <v>1057</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6895,14 +6895,14 @@
       <c r="G141" t="s">
         <v>362</v>
       </c>
-      <c r="J141">
-        <v>448</v>
-      </c>
       <c r="K141">
         <v>1803</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6918,14 +6918,14 @@
       <c r="G142" t="s">
         <v>365</v>
       </c>
-      <c r="J142">
-        <v>181</v>
-      </c>
       <c r="K142">
         <v>726</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6941,14 +6941,14 @@
       <c r="G143" t="s">
         <v>368</v>
       </c>
-      <c r="J143">
-        <v>140</v>
-      </c>
       <c r="K143">
         <v>563</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6964,14 +6964,14 @@
       <c r="G144" t="s">
         <v>370</v>
       </c>
-      <c r="J144">
-        <v>186</v>
-      </c>
       <c r="K144">
         <v>805</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6987,14 +6987,14 @@
       <c r="G145" t="s">
         <v>373</v>
       </c>
-      <c r="J145">
-        <v>470</v>
-      </c>
       <c r="K145">
         <v>1870</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7010,14 +7010,14 @@
       <c r="G146" t="s">
         <v>376</v>
       </c>
-      <c r="J146">
-        <v>309</v>
-      </c>
       <c r="K146">
         <v>1141</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7033,14 +7033,14 @@
       <c r="G147" t="s">
         <v>379</v>
       </c>
-      <c r="J147">
-        <v>247</v>
-      </c>
       <c r="K147">
         <v>1007</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7056,14 +7056,14 @@
       <c r="G148" t="s">
         <v>382</v>
       </c>
-      <c r="J148">
-        <v>207</v>
-      </c>
       <c r="K148">
         <v>768</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7079,14 +7079,14 @@
       <c r="G149" t="s">
         <v>384</v>
       </c>
-      <c r="J149">
-        <v>52</v>
-      </c>
       <c r="K149">
         <v>205</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7102,14 +7102,14 @@
       <c r="G150" t="s">
         <v>386</v>
       </c>
-      <c r="J150">
-        <v>244</v>
-      </c>
       <c r="K150">
         <v>948</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7125,14 +7125,14 @@
       <c r="G151" t="s">
         <v>388</v>
       </c>
-      <c r="J151">
-        <v>42</v>
-      </c>
       <c r="K151">
         <v>165</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7151,14 +7151,14 @@
       <c r="G152" t="s">
         <v>391</v>
       </c>
-      <c r="J152">
-        <v>197</v>
-      </c>
       <c r="K152">
         <v>718</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7177,14 +7177,14 @@
       <c r="G153" t="s">
         <v>393</v>
       </c>
-      <c r="J153">
-        <v>262</v>
-      </c>
       <c r="K153">
         <v>1075</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L153">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7197,14 +7197,14 @@
       <c r="G154" t="s">
         <v>396</v>
       </c>
-      <c r="J154">
-        <v>144</v>
-      </c>
       <c r="K154">
         <v>567</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7220,14 +7220,14 @@
       <c r="G155" t="s">
         <v>399</v>
       </c>
-      <c r="J155">
-        <v>255</v>
-      </c>
       <c r="K155">
         <v>1062</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L155">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7246,14 +7246,14 @@
       <c r="G156" t="s">
         <v>402</v>
       </c>
-      <c r="J156">
-        <v>374</v>
-      </c>
       <c r="K156">
         <v>1594</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7269,14 +7269,14 @@
       <c r="G157" t="s">
         <v>405</v>
       </c>
-      <c r="J157">
-        <v>95</v>
-      </c>
       <c r="K157">
         <v>449</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L157">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7295,14 +7295,14 @@
       <c r="G158" t="s">
         <v>409</v>
       </c>
-      <c r="J158">
-        <v>304</v>
-      </c>
       <c r="K158">
         <v>1259</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L158">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7321,14 +7321,14 @@
       <c r="G159" t="s">
         <v>411</v>
       </c>
-      <c r="J159">
-        <v>146</v>
-      </c>
       <c r="K159">
         <v>657</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7347,14 +7347,14 @@
       <c r="G160" t="s">
         <v>414</v>
       </c>
-      <c r="J160">
-        <v>289</v>
-      </c>
       <c r="K160">
         <v>1286</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7373,14 +7373,14 @@
       <c r="G161" t="s">
         <v>416</v>
       </c>
-      <c r="J161">
-        <v>113</v>
-      </c>
       <c r="K161">
         <v>458</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L161">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7399,14 +7399,14 @@
       <c r="G162" t="s">
         <v>418</v>
       </c>
-      <c r="J162">
-        <v>211</v>
-      </c>
       <c r="K162">
         <v>866</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L162">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7425,14 +7425,14 @@
       <c r="G163" t="s">
         <v>420</v>
       </c>
-      <c r="J163">
-        <v>145</v>
-      </c>
       <c r="K163">
         <v>603</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7451,14 +7451,14 @@
       <c r="G164" t="s">
         <v>423</v>
       </c>
-      <c r="J164">
-        <v>39</v>
-      </c>
       <c r="K164">
         <v>119</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L164">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7477,14 +7477,14 @@
       <c r="G165" t="s">
         <v>426</v>
       </c>
-      <c r="J165">
-        <v>182</v>
-      </c>
       <c r="K165">
         <v>793</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L165">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7503,14 +7503,14 @@
       <c r="G166" t="s">
         <v>429</v>
       </c>
-      <c r="J166">
-        <v>135</v>
-      </c>
       <c r="K166">
         <v>531</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L166">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7529,14 +7529,14 @@
       <c r="G167" t="s">
         <v>431</v>
       </c>
-      <c r="J167">
-        <v>416</v>
-      </c>
       <c r="K167">
         <v>1690</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7555,14 +7555,14 @@
       <c r="G168" t="s">
         <v>434</v>
       </c>
-      <c r="J168">
-        <v>46</v>
-      </c>
       <c r="K168">
         <v>209</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7578,14 +7578,14 @@
       <c r="G169" t="s">
         <v>436</v>
       </c>
-      <c r="J169">
-        <v>225</v>
-      </c>
       <c r="K169">
         <v>944</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L169">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7601,14 +7601,14 @@
       <c r="G170" t="s">
         <v>439</v>
       </c>
-      <c r="J170">
-        <v>347</v>
-      </c>
       <c r="K170">
         <v>1545</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7624,14 +7624,14 @@
       <c r="G171" t="s">
         <v>441</v>
       </c>
-      <c r="J171">
-        <v>255</v>
-      </c>
       <c r="K171">
         <v>1083</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L171">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7647,14 +7647,14 @@
       <c r="G172" t="s">
         <v>443</v>
       </c>
-      <c r="J172">
-        <v>428</v>
-      </c>
       <c r="K172">
         <v>1865</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L172">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7670,14 +7670,14 @@
       <c r="G173" t="s">
         <v>445</v>
       </c>
-      <c r="J173">
-        <v>350</v>
-      </c>
       <c r="K173">
         <v>1468</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L173">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7693,14 +7693,14 @@
       <c r="G174" t="s">
         <v>447</v>
       </c>
-      <c r="J174">
-        <v>283</v>
-      </c>
       <c r="K174">
         <v>1198</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L174">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7716,14 +7716,14 @@
       <c r="G175" t="s">
         <v>450</v>
       </c>
-      <c r="J175">
-        <v>211</v>
-      </c>
       <c r="K175">
         <v>855</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L175">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7739,14 +7739,14 @@
       <c r="G176" t="s">
         <v>453</v>
       </c>
-      <c r="J176">
-        <v>106</v>
-      </c>
       <c r="K176">
         <v>445</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7762,14 +7762,14 @@
       <c r="G177" t="s">
         <v>456</v>
       </c>
-      <c r="J177">
-        <v>177</v>
-      </c>
       <c r="K177">
         <v>732</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L177">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7785,14 +7785,14 @@
       <c r="G178" t="s">
         <v>459</v>
       </c>
-      <c r="J178">
-        <v>128</v>
-      </c>
       <c r="K178">
         <v>571</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L178">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7808,14 +7808,14 @@
       <c r="G179" t="s">
         <v>462</v>
       </c>
-      <c r="J179">
-        <v>206</v>
-      </c>
       <c r="K179">
         <v>833</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L179">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7831,14 +7831,14 @@
       <c r="G180" t="s">
         <v>465</v>
       </c>
-      <c r="J180">
-        <v>174</v>
-      </c>
       <c r="K180">
         <v>726</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7851,14 +7851,14 @@
       <c r="G181" t="s">
         <v>467</v>
       </c>
-      <c r="J181">
-        <v>232</v>
-      </c>
       <c r="K181">
         <v>1010</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L181">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7877,14 +7877,14 @@
       <c r="G182" t="s">
         <v>470</v>
       </c>
-      <c r="J182">
-        <v>315</v>
-      </c>
       <c r="K182">
         <v>1309</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7903,14 +7903,14 @@
       <c r="G183" t="s">
         <v>473</v>
       </c>
-      <c r="J183">
-        <v>231</v>
-      </c>
       <c r="K183">
         <v>987</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L183">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7923,14 +7923,14 @@
       <c r="G184" t="s">
         <v>475</v>
       </c>
-      <c r="J184">
-        <v>412</v>
-      </c>
       <c r="K184">
         <v>1739</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L184">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7946,14 +7946,14 @@
       <c r="G185" t="s">
         <v>478</v>
       </c>
-      <c r="J185">
-        <v>173</v>
-      </c>
       <c r="K185">
         <v>811</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L185">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7969,14 +7969,14 @@
       <c r="G186" t="s">
         <v>480</v>
       </c>
-      <c r="J186">
-        <v>111</v>
-      </c>
       <c r="K186">
         <v>502</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L186">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7992,14 +7992,14 @@
       <c r="G187" t="s">
         <v>482</v>
       </c>
-      <c r="J187">
-        <v>230</v>
-      </c>
       <c r="K187">
         <v>996</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L187">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8018,14 +8018,14 @@
       <c r="G188" t="s">
         <v>486</v>
       </c>
-      <c r="J188">
-        <v>222</v>
-      </c>
       <c r="K188">
         <v>914</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L188">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8041,14 +8041,14 @@
       <c r="G189" t="s">
         <v>489</v>
       </c>
-      <c r="J189">
-        <v>238</v>
-      </c>
       <c r="K189">
         <v>1063</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L189">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8064,14 +8064,14 @@
       <c r="G190" t="s">
         <v>492</v>
       </c>
-      <c r="J190">
-        <v>102</v>
-      </c>
       <c r="K190">
         <v>445</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L190">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8087,14 +8087,14 @@
       <c r="G191" t="s">
         <v>495</v>
       </c>
-      <c r="J191">
-        <v>83</v>
-      </c>
       <c r="K191">
         <v>371</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L191">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8110,14 +8110,14 @@
       <c r="G192" t="s">
         <v>498</v>
       </c>
-      <c r="J192">
-        <v>87</v>
-      </c>
       <c r="K192">
         <v>383</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L192">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8133,14 +8133,14 @@
       <c r="G193" t="s">
         <v>501</v>
       </c>
-      <c r="J193">
-        <v>46</v>
-      </c>
       <c r="K193">
         <v>176</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8156,14 +8156,14 @@
       <c r="G194" t="s">
         <v>504</v>
       </c>
-      <c r="J194">
-        <v>80</v>
-      </c>
       <c r="K194">
         <v>328</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L194">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8179,14 +8179,14 @@
       <c r="G195" t="s">
         <v>507</v>
       </c>
-      <c r="J195">
-        <v>213</v>
-      </c>
       <c r="K195">
         <v>910</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L195">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8202,14 +8202,14 @@
       <c r="G196" t="s">
         <v>510</v>
       </c>
-      <c r="J196">
-        <v>126</v>
-      </c>
       <c r="K196">
         <v>487</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L196">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8225,14 +8225,14 @@
       <c r="G197" t="s">
         <v>513</v>
       </c>
-      <c r="J197">
-        <v>271</v>
-      </c>
       <c r="K197">
         <v>1100</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L197">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8248,14 +8248,14 @@
       <c r="G198" t="s">
         <v>516</v>
       </c>
-      <c r="J198">
-        <v>193</v>
-      </c>
       <c r="K198">
         <v>759</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L198">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8271,14 +8271,14 @@
       <c r="G199" t="s">
         <v>519</v>
       </c>
-      <c r="J199">
-        <v>99</v>
-      </c>
       <c r="K199">
         <v>491</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L199">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8294,14 +8294,14 @@
       <c r="G200" t="s">
         <v>522</v>
       </c>
-      <c r="J200">
-        <v>132</v>
-      </c>
       <c r="K200">
         <v>547</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L200">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8320,14 +8320,14 @@
       <c r="G201" t="s">
         <v>525</v>
       </c>
-      <c r="J201">
-        <v>99</v>
-      </c>
       <c r="K201">
         <v>442</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L201">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8346,14 +8346,14 @@
       <c r="G202" t="s">
         <v>525</v>
       </c>
-      <c r="J202">
-        <v>60</v>
-      </c>
       <c r="K202">
         <v>221</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L202">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8372,14 +8372,14 @@
       <c r="G203" t="s">
         <v>525</v>
       </c>
-      <c r="J203">
-        <v>97</v>
-      </c>
       <c r="K203">
         <v>347</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L203">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8398,14 +8398,14 @@
       <c r="G204" t="s">
         <v>530</v>
       </c>
-      <c r="J204">
-        <v>56</v>
-      </c>
       <c r="K204">
         <v>197</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8424,14 +8424,14 @@
       <c r="G205" t="s">
         <v>530</v>
       </c>
-      <c r="J205">
-        <v>26</v>
-      </c>
       <c r="K205">
         <v>83</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L205">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8450,14 +8450,14 @@
       <c r="G206" t="s">
         <v>535</v>
       </c>
-      <c r="J206">
-        <v>157</v>
-      </c>
       <c r="K206">
         <v>623</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L206">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8476,14 +8476,14 @@
       <c r="G207" t="s">
         <v>535</v>
       </c>
-      <c r="J207">
-        <v>105</v>
-      </c>
       <c r="K207">
         <v>426</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L207">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8502,14 +8502,14 @@
       <c r="G208" t="s">
         <v>539</v>
       </c>
-      <c r="J208">
-        <v>195</v>
-      </c>
       <c r="K208">
         <v>812</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L208">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8528,14 +8528,14 @@
       <c r="G209" t="s">
         <v>539</v>
       </c>
-      <c r="J209">
-        <v>233</v>
-      </c>
       <c r="K209">
         <v>957</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L209">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8554,14 +8554,14 @@
       <c r="G210" t="s">
         <v>539</v>
       </c>
-      <c r="J210">
-        <v>134</v>
-      </c>
       <c r="K210">
         <v>581</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L210">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8580,14 +8580,14 @@
       <c r="G211" t="s">
         <v>545</v>
       </c>
-      <c r="J211">
-        <v>37</v>
-      </c>
       <c r="K211">
         <v>140</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8606,14 +8606,14 @@
       <c r="G212" t="s">
         <v>549</v>
       </c>
-      <c r="J212">
-        <v>33</v>
-      </c>
       <c r="K212">
         <v>124</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L212">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8632,14 +8632,14 @@
       <c r="G213" t="s">
         <v>551</v>
       </c>
-      <c r="J213">
-        <v>96</v>
-      </c>
       <c r="K213">
         <v>430</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L213">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8658,14 +8658,14 @@
       <c r="G214" t="s">
         <v>551</v>
       </c>
-      <c r="J214">
-        <v>68</v>
-      </c>
       <c r="K214">
         <v>270</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8684,14 +8684,14 @@
       <c r="G215" t="s">
         <v>555</v>
       </c>
-      <c r="J215">
-        <v>73</v>
-      </c>
       <c r="K215">
         <v>390</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8710,14 +8710,14 @@
       <c r="G216" t="s">
         <v>558</v>
       </c>
-      <c r="J216">
-        <v>81</v>
-      </c>
       <c r="K216">
         <v>361</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8736,14 +8736,14 @@
       <c r="G217" t="s">
         <v>561</v>
       </c>
-      <c r="J217">
-        <v>24</v>
-      </c>
       <c r="K217">
         <v>110</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8762,14 +8762,14 @@
       <c r="G218" t="s">
         <v>564</v>
       </c>
-      <c r="J218">
-        <v>30</v>
-      </c>
       <c r="K218">
         <v>113</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8785,14 +8785,14 @@
       <c r="G219" t="s">
         <v>566</v>
       </c>
-      <c r="J219">
-        <v>223</v>
-      </c>
       <c r="K219">
         <v>973</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L219">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8811,14 +8811,14 @@
       <c r="G220" t="s">
         <v>569</v>
       </c>
-      <c r="J220">
-        <v>55</v>
-      </c>
       <c r="K220">
         <v>214</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L220">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8837,14 +8837,14 @@
       <c r="G221" t="s">
         <v>569</v>
       </c>
-      <c r="J221">
-        <v>32</v>
-      </c>
       <c r="K221">
         <v>120</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L221">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8863,14 +8863,14 @@
       <c r="G222" t="s">
         <v>573</v>
       </c>
-      <c r="J222">
-        <v>195</v>
-      </c>
       <c r="K222">
         <v>787</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L222">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8889,14 +8889,14 @@
       <c r="G223" t="s">
         <v>577</v>
       </c>
-      <c r="J223">
-        <v>25</v>
-      </c>
       <c r="K223">
         <v>99</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L223">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8915,14 +8915,14 @@
       <c r="G224" t="s">
         <v>581</v>
       </c>
-      <c r="J224">
-        <v>131</v>
-      </c>
       <c r="K224">
         <v>508</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L224">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8941,14 +8941,14 @@
       <c r="G225" t="s">
         <v>581</v>
       </c>
-      <c r="J225">
-        <v>201</v>
-      </c>
       <c r="K225">
         <v>897</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L225">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8967,14 +8967,14 @@
       <c r="G226" t="s">
         <v>581</v>
       </c>
-      <c r="J226">
-        <v>52</v>
-      </c>
       <c r="K226">
         <v>242</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L226">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8993,14 +8993,14 @@
       <c r="G227" t="s">
         <v>581</v>
       </c>
-      <c r="J227">
-        <v>122</v>
-      </c>
       <c r="K227">
         <v>578</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L227">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9019,14 +9019,14 @@
       <c r="G228" t="s">
         <v>581</v>
       </c>
-      <c r="J228">
-        <v>53</v>
-      </c>
       <c r="K228">
         <v>238</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L228">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9045,14 +9045,14 @@
       <c r="G229" t="s">
         <v>581</v>
       </c>
-      <c r="J229">
-        <v>59</v>
-      </c>
       <c r="K229">
         <v>266</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L229">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9071,14 +9071,14 @@
       <c r="G230" t="s">
         <v>581</v>
       </c>
-      <c r="J230">
-        <v>95</v>
-      </c>
       <c r="K230">
         <v>430</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L230">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9097,14 +9097,14 @@
       <c r="G231" t="s">
         <v>581</v>
       </c>
-      <c r="J231">
-        <v>109</v>
-      </c>
       <c r="K231">
         <v>427</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L231">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9123,14 +9123,14 @@
       <c r="G232" t="s">
         <v>581</v>
       </c>
-      <c r="J232">
-        <v>83</v>
-      </c>
       <c r="K232">
         <v>338</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L232">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9149,14 +9149,14 @@
       <c r="G233" t="s">
         <v>581</v>
       </c>
-      <c r="J233">
-        <v>308</v>
-      </c>
       <c r="K233">
         <v>1350</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L233">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9175,14 +9175,14 @@
       <c r="G234" t="s">
         <v>581</v>
       </c>
-      <c r="J234">
-        <v>147</v>
-      </c>
       <c r="K234">
         <v>646</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L234">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9201,14 +9201,14 @@
       <c r="G235" t="s">
         <v>581</v>
       </c>
-      <c r="J235">
-        <v>32</v>
-      </c>
       <c r="K235">
         <v>148</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L235">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9227,14 +9227,14 @@
       <c r="G236" t="s">
         <v>581</v>
       </c>
-      <c r="J236">
-        <v>87</v>
-      </c>
       <c r="K236">
         <v>399</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L236">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9253,14 +9253,14 @@
       <c r="G237" t="s">
         <v>602</v>
       </c>
-      <c r="J237">
-        <v>398</v>
-      </c>
       <c r="K237">
         <v>1594</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L237">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9276,14 +9276,14 @@
       <c r="G238" t="s">
         <v>608</v>
       </c>
-      <c r="J238">
-        <v>58</v>
-      </c>
       <c r="K238">
         <v>211</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L238">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9299,14 +9299,14 @@
       <c r="G239" t="s">
         <v>611</v>
       </c>
-      <c r="J239">
-        <v>50</v>
-      </c>
       <c r="K239">
         <v>229</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9322,14 +9322,14 @@
       <c r="G240" t="s">
         <v>614</v>
       </c>
-      <c r="J240">
-        <v>84</v>
-      </c>
       <c r="K240">
         <v>334</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L240">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9345,14 +9345,14 @@
       <c r="G241" t="s">
         <v>616</v>
       </c>
-      <c r="J241">
-        <v>83</v>
-      </c>
       <c r="K241">
         <v>353</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L241">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9371,14 +9371,14 @@
       <c r="G242" t="s">
         <v>618</v>
       </c>
-      <c r="J242">
-        <v>255</v>
-      </c>
       <c r="K242">
         <v>1059</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L242">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9394,14 +9394,14 @@
       <c r="G243" t="s">
         <v>620</v>
       </c>
-      <c r="J243">
-        <v>97</v>
-      </c>
       <c r="K243">
         <v>391</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L243">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9420,14 +9420,14 @@
       <c r="G244" t="s">
         <v>622</v>
       </c>
-      <c r="J244">
-        <v>151</v>
-      </c>
       <c r="K244">
         <v>594</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L244">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9443,14 +9443,14 @@
       <c r="G245" t="s">
         <v>624</v>
       </c>
-      <c r="J245">
-        <v>165</v>
-      </c>
       <c r="K245">
         <v>706</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L245">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9466,14 +9466,14 @@
       <c r="G246" t="s">
         <v>626</v>
       </c>
-      <c r="J246">
-        <v>129</v>
-      </c>
       <c r="K246">
         <v>600</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L246">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9489,14 +9489,14 @@
       <c r="G247" t="s">
         <v>628</v>
       </c>
-      <c r="J247">
-        <v>136</v>
-      </c>
       <c r="K247">
         <v>666</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L247">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9512,14 +9512,14 @@
       <c r="G248" t="s">
         <v>631</v>
       </c>
-      <c r="J248">
-        <v>148</v>
-      </c>
       <c r="K248">
         <v>682</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L248">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9535,14 +9535,14 @@
       <c r="G249" t="s">
         <v>634</v>
       </c>
-      <c r="J249">
-        <v>391</v>
-      </c>
       <c r="K249">
         <v>1777</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L249">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9558,14 +9558,14 @@
       <c r="G250" t="s">
         <v>636</v>
       </c>
-      <c r="J250">
-        <v>213</v>
-      </c>
       <c r="K250">
         <v>904</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L250">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9581,11 +9581,11 @@
       <c r="G251" t="s">
         <v>638</v>
       </c>
-      <c r="J251">
-        <v>306</v>
-      </c>
       <c r="K251">
         <v>1206</v>
+      </c>
+      <c r="L251">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
